--- a/biology/Botanique/Furcraea/Furcraea.xlsx
+++ b/biology/Botanique/Furcraea/Furcraea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Furcraea est un genre de plantes succulentes de la famille des Asparagaceae, sous-famille des Agavoideae[2], originaire des régions tropicales du Mexique, des Caraïbes, d'Amérique centrale et du nord de l'Amérique du Sud. Des plantes de ce genre fournissent des fibres naturelles, connues sous les noms de fique (en) ou cabuyo. Le nom de ce genre botanique fait référence au chimiste, et homme politique français, Antoine François de Fourcroy.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Furcraea est un genre de plantes succulentes de la famille des Asparagaceae, sous-famille des Agavoideae, originaire des régions tropicales du Mexique, des Caraïbes, d'Amérique centrale et du nord de l'Amérique du Sud. Des plantes de ce genre fournissent des fibres naturelles, connues sous les noms de fique (en) ou cabuyo. Le nom de ce genre botanique fait référence au chimiste, et homme politique français, Antoine François de Fourcroy.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,14 +551,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (11 mai 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (11 mai 2014) :
 Furcraea foetida (L.) Haw.
 Furcraea hexapetala (Jacq.) Urb.
 Furcraea selloa K. Koch
 Furcraea tuberosa (Mill.) W.T. Aiton
-Selon World Checklist of Selected Plant Families (WCSP)  (11 mai 2014)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (11 mai 2014) :
 Furcraea acaulis (Kunth) B.Ullrich (1992)
 Furcraea andina Trel. (1915)
 Furcraea antillana A.Álvarez, Anales Inst. Biol. Univ. Nac. Autón. México (1996)
@@ -570,14 +586,14 @@
 Furcraea stricta Jacobi, Abh. Schles. Ges. Vaterl. Cult. (1869)
 Furcraea tuberosa (Mill.) Aiton (1811)
 Furcraea undulata Jacobi, Abh. Schles. Ges. Vaterl. Cult. (1869)
-Selon NCBI  (11 mai 2014)[5] :
+Selon NCBI  (11 mai 2014) :
 Furcraea cahum
 Furcraea gigantea
 Furcraea guatemalensis
 Furcraea longaeva
 Furcraea macdougallii
 Furcraea pubescens
-Selon Tropicos                                           (11 mai 2014)[6] :
+Selon Tropicos                                           (11 mai 2014) :
 Furcraea acaulis (Kunth) B. Ullrich
 Furcraea agavephylla Brot. ex Schult.
 Furcraea aitonii Jacobi
